--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H2">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1602208046484</v>
+        <v>20.26081</v>
       </c>
       <c r="N2">
-        <v>12.1602208046484</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q2">
-        <v>12.41326322770229</v>
+        <v>21.73882933589667</v>
       </c>
       <c r="R2">
-        <v>12.41326322770229</v>
+        <v>195.64946402307</v>
       </c>
       <c r="S2">
-        <v>0.006492456011885372</v>
+        <v>0.008051903515599614</v>
       </c>
       <c r="T2">
-        <v>0.006492456011885372</v>
+        <v>0.008051903515599612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H3">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.8543492422994</v>
+        <v>55.974318</v>
       </c>
       <c r="N3">
-        <v>55.8543492422994</v>
+        <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q3">
-        <v>57.01662417936033</v>
+        <v>60.057625839994</v>
       </c>
       <c r="R3">
-        <v>57.01662417936033</v>
+        <v>540.518632559946</v>
       </c>
       <c r="S3">
-        <v>0.0298211612563393</v>
+        <v>0.02224490570157317</v>
       </c>
       <c r="T3">
-        <v>0.0298211612563393</v>
+        <v>0.02224490570157317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H4">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.174273158150951</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N4">
-        <v>0.174273158150951</v>
+        <v>0.215531</v>
       </c>
       <c r="O4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q4">
-        <v>0.1778996138642316</v>
+        <v>0.0770846382021111</v>
       </c>
       <c r="R4">
-        <v>0.1778996138642316</v>
+        <v>0.6937617438189999</v>
       </c>
       <c r="S4">
-        <v>9.304607469914334E-05</v>
+        <v>2.855158664470472E-05</v>
       </c>
       <c r="T4">
-        <v>9.304607469914334E-05</v>
+        <v>2.855158664470473E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H5">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.191198110973819</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N5">
-        <v>0.191198110973819</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q5">
-        <v>0.1951767585708797</v>
+        <v>0.1996637728704444</v>
       </c>
       <c r="R5">
-        <v>0.1951767585708797</v>
+        <v>1.796973955834</v>
       </c>
       <c r="S5">
-        <v>0.0001020824658528057</v>
+        <v>7.395400230033141E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001020824658528057</v>
+        <v>7.395400230033141E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H6">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.5770824985993</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N6">
-        <v>12.5770824985993</v>
+        <v>0.579881</v>
       </c>
       <c r="O6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q6">
-        <v>12.83879940995486</v>
+        <v>0.2073943752187778</v>
       </c>
       <c r="R6">
-        <v>12.83879940995486</v>
+        <v>1.866549376969</v>
       </c>
       <c r="S6">
-        <v>0.006715022382553712</v>
+        <v>7.681736091382689E-05</v>
       </c>
       <c r="T6">
-        <v>0.006715022382553712</v>
+        <v>7.681736091382688E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4182505710072</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H7">
-        <v>12.4182505710072</v>
+        <v>3.218849</v>
       </c>
       <c r="I7">
-        <v>0.5258217425896935</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J7">
-        <v>0.5258217425896935</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1602208046484</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N7">
-        <v>12.1602208046484</v>
+        <v>52.754797</v>
       </c>
       <c r="O7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q7">
-        <v>151.0086689508986</v>
+        <v>18.86774728540589</v>
       </c>
       <c r="R7">
-        <v>151.0086689508986</v>
+        <v>169.809725568653</v>
       </c>
       <c r="S7">
-        <v>0.07898141871261566</v>
+        <v>0.006988475706368498</v>
       </c>
       <c r="T7">
-        <v>0.07898141871261566</v>
+        <v>0.006988475706368498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H8">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8543492422994</v>
+        <v>20.26081</v>
       </c>
       <c r="N8">
-        <v>55.8543492422994</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q8">
-        <v>693.6133043714201</v>
+        <v>254.4423702779134</v>
       </c>
       <c r="R8">
-        <v>693.6133043714201</v>
+        <v>2289.981332501221</v>
       </c>
       <c r="S8">
-        <v>0.3627776020925854</v>
+        <v>0.09424359445037815</v>
       </c>
       <c r="T8">
-        <v>0.3627776020925854</v>
+        <v>0.09424359445037817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H9">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174273158150951</v>
+        <v>55.974318</v>
       </c>
       <c r="N9">
-        <v>0.174273158150951</v>
+        <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q9">
-        <v>2.164167745719275</v>
+        <v>702.9451510877241</v>
       </c>
       <c r="R9">
-        <v>2.164167745719275</v>
+        <v>6326.506359789517</v>
       </c>
       <c r="S9">
-        <v>0.001131915406423258</v>
+        <v>0.2603657467410485</v>
       </c>
       <c r="T9">
-        <v>0.001131915406423258</v>
+        <v>0.2603657467410485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H10">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.191198110973819</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N10">
-        <v>0.191198110973819</v>
+        <v>0.215531</v>
       </c>
       <c r="O10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q10">
-        <v>2.374346050776126</v>
+        <v>0.9022380070748888</v>
       </c>
       <c r="R10">
-        <v>2.374346050776126</v>
+        <v>8.120142063673999</v>
       </c>
       <c r="S10">
-        <v>0.001241844067018237</v>
+        <v>0.0003341823641385257</v>
       </c>
       <c r="T10">
-        <v>0.001241844067018237</v>
+        <v>0.0003341823641385258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H11">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5770824985993</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N11">
-        <v>12.5770824985993</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q11">
-        <v>156.1853619198354</v>
+        <v>2.336966855151556</v>
       </c>
       <c r="R11">
-        <v>156.1853619198354</v>
+        <v>21.032701696364</v>
       </c>
       <c r="S11">
-        <v>0.08168896231105101</v>
+        <v>0.000865595444266292</v>
       </c>
       <c r="T11">
-        <v>0.08168896231105101</v>
+        <v>0.0008655954442662922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.727116116703574</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H12">
-        <v>0.727116116703574</v>
+        <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.03078802938980434</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J12">
-        <v>0.03078802938980434</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.1602208046484</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N12">
-        <v>12.1602208046484</v>
+        <v>0.579881</v>
       </c>
       <c r="O12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q12">
-        <v>8.841892529733954</v>
+        <v>2.427449776508222</v>
       </c>
       <c r="R12">
-        <v>8.841892529733954</v>
+        <v>21.847047988574</v>
       </c>
       <c r="S12">
-        <v>0.004624537259711474</v>
+        <v>0.0008991096570749101</v>
       </c>
       <c r="T12">
-        <v>0.004624537259711474</v>
+        <v>0.0008991096570749101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.727116116703574</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H13">
-        <v>0.727116116703574</v>
+        <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.03078802938980434</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J13">
-        <v>0.03078802938980434</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.8543492422994</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N13">
-        <v>55.8543492422994</v>
+        <v>52.754797</v>
       </c>
       <c r="O13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q13">
-        <v>40.61259752206595</v>
+        <v>220.8377584148931</v>
       </c>
       <c r="R13">
-        <v>40.61259752206595</v>
+        <v>1987.539825734038</v>
       </c>
       <c r="S13">
-        <v>0.02124143330433706</v>
+        <v>0.08179669180353639</v>
       </c>
       <c r="T13">
-        <v>0.02124143330433706</v>
+        <v>0.08179669180353641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H14">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.174273158150951</v>
+        <v>20.26081</v>
       </c>
       <c r="N14">
-        <v>0.174273158150951</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q14">
-        <v>0.1267168220003873</v>
+        <v>5.593273498236667</v>
       </c>
       <c r="R14">
-        <v>0.1267168220003873</v>
+        <v>50.33946148413001</v>
       </c>
       <c r="S14">
-        <v>6.627615782507709E-05</v>
+        <v>0.002071707627318945</v>
       </c>
       <c r="T14">
-        <v>6.627615782507709E-05</v>
+        <v>0.002071707627318945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H15">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.191198110973819</v>
+        <v>55.974318</v>
       </c>
       <c r="N15">
-        <v>0.191198110973819</v>
+        <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q15">
-        <v>0.1390232279723423</v>
+        <v>15.452475466246</v>
       </c>
       <c r="R15">
-        <v>0.1390232279723423</v>
+        <v>139.072279196214</v>
       </c>
       <c r="S15">
-        <v>7.271272474319524E-05</v>
+        <v>0.005723483983837571</v>
       </c>
       <c r="T15">
-        <v>7.271272474319524E-05</v>
+        <v>0.005723483983837572</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H16">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>12.5770824985993</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N16">
-        <v>12.5770824985993</v>
+        <v>0.215531</v>
       </c>
       <c r="O16">
-        <v>0.1553548582999431</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P16">
-        <v>0.1553548582999431</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q16">
-        <v>9.144999385842006</v>
+        <v>0.01983342604677777</v>
       </c>
       <c r="R16">
-        <v>9.144999385842006</v>
+        <v>0.178500834421</v>
       </c>
       <c r="S16">
-        <v>0.004783069943187539</v>
+        <v>7.346156062264693E-06</v>
       </c>
       <c r="T16">
-        <v>0.004783069943187539</v>
+        <v>7.346156062264696E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>9.450669239726009</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H17">
-        <v>9.450669239726009</v>
+        <v>0.828191</v>
       </c>
       <c r="I17">
-        <v>0.4001664598291719</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J17">
-        <v>0.4001664598291719</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1602208046484</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N17">
-        <v>12.1602208046484</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O17">
-        <v>0.1502056919967382</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P17">
-        <v>0.1502056919967382</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q17">
-        <v>114.9222247067669</v>
+        <v>0.0513723196451111</v>
       </c>
       <c r="R17">
-        <v>114.9222247067669</v>
+        <v>0.462350876806</v>
       </c>
       <c r="S17">
-        <v>0.06010728001252571</v>
+        <v>1.902793176042547E-05</v>
       </c>
       <c r="T17">
-        <v>0.06010728001252571</v>
+        <v>1.902793176042547E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>9.450669239726009</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H18">
-        <v>9.450669239726009</v>
+        <v>0.828191</v>
       </c>
       <c r="I18">
-        <v>0.4001664598291719</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J18">
-        <v>0.4001664598291719</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.8543492422994</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N18">
-        <v>55.8543492422994</v>
+        <v>0.579881</v>
       </c>
       <c r="O18">
-        <v>0.6899250691040103</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P18">
-        <v>0.6899250691040103</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q18">
-        <v>527.8609802891127</v>
+        <v>0.05336135836344444</v>
       </c>
       <c r="R18">
-        <v>527.8609802891127</v>
+        <v>0.480252225271</v>
       </c>
       <c r="S18">
-        <v>0.2760848724507486</v>
+        <v>1.976465716552196E-05</v>
       </c>
       <c r="T18">
-        <v>0.2760848724507486</v>
+        <v>1.976465716552196E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>9.450669239726009</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H19">
-        <v>9.450669239726009</v>
+        <v>0.828191</v>
       </c>
       <c r="I19">
-        <v>0.4001664598291719</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J19">
-        <v>0.4001664598291719</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.174273158150951</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N19">
-        <v>0.174273158150951</v>
+        <v>52.754797</v>
       </c>
       <c r="O19">
-        <v>0.002152659950591865</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P19">
-        <v>0.002152659950591865</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q19">
-        <v>1.646997975047099</v>
+        <v>4.854560898025222</v>
       </c>
       <c r="R19">
-        <v>1.646997975047099</v>
+        <v>43.691048082227</v>
       </c>
       <c r="S19">
-        <v>0.0008614223116443867</v>
+        <v>0.001798093878816009</v>
       </c>
       <c r="T19">
-        <v>0.0008614223116443867</v>
+        <v>0.00179809387881601</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H20">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.191198110973819</v>
+        <v>20.26081</v>
       </c>
       <c r="N20">
-        <v>0.191198110973819</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O20">
-        <v>0.002361720648716625</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P20">
-        <v>0.002361720648716625</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q20">
-        <v>1.806950106073991</v>
+        <v>14.8649510808</v>
       </c>
       <c r="R20">
-        <v>1.806950106073991</v>
+        <v>133.7845597272</v>
       </c>
       <c r="S20">
-        <v>0.0009450813911023873</v>
+        <v>0.00550586924517906</v>
       </c>
       <c r="T20">
-        <v>0.0009450813911023873</v>
+        <v>0.00550586924517906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.73368</v>
+      </c>
+      <c r="H21">
+        <v>2.20104</v>
+      </c>
+      <c r="I21">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J21">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>55.974318</v>
+      </c>
+      <c r="N21">
+        <v>167.922954</v>
+      </c>
+      <c r="O21">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P21">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q21">
+        <v>41.06723763024</v>
+      </c>
+      <c r="R21">
+        <v>369.60513867216</v>
+      </c>
+      <c r="S21">
+        <v>0.01521100469310322</v>
+      </c>
+      <c r="T21">
+        <v>0.01521100469310322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.73368</v>
+      </c>
+      <c r="H22">
+        <v>2.20104</v>
+      </c>
+      <c r="I22">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J22">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N22">
+        <v>0.215531</v>
+      </c>
+      <c r="O22">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P22">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q22">
+        <v>0.05271026135999999</v>
+      </c>
+      <c r="R22">
+        <v>0.4743923522399999</v>
+      </c>
+      <c r="S22">
+        <v>1.952349559375444E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.952349559375444E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.73368</v>
+      </c>
+      <c r="H23">
+        <v>2.20104</v>
+      </c>
+      <c r="I23">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J23">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P23">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q23">
+        <v>0.13652953296</v>
+      </c>
+      <c r="R23">
+        <v>1.22876579664</v>
+      </c>
+      <c r="S23">
+        <v>5.056954123139092E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.056954123139093E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.73368</v>
+      </c>
+      <c r="H24">
+        <v>2.20104</v>
+      </c>
+      <c r="I24">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J24">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.579881</v>
+      </c>
+      <c r="O24">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P24">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q24">
+        <v>0.14181569736</v>
+      </c>
+      <c r="R24">
+        <v>1.27634127624</v>
+      </c>
+      <c r="S24">
+        <v>5.252749789311941E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.252749789311941E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.73368</v>
+      </c>
+      <c r="H25">
+        <v>2.20104</v>
+      </c>
+      <c r="I25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N25">
+        <v>52.754797</v>
+      </c>
+      <c r="O25">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P25">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q25">
+        <v>12.90171315432</v>
+      </c>
+      <c r="R25">
+        <v>116.11541838888</v>
+      </c>
+      <c r="S25">
+        <v>0.004778700264829235</v>
+      </c>
+      <c r="T25">
+        <v>0.004778700264829236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.253455</v>
+      </c>
+      <c r="I26">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J26">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.26081</v>
+      </c>
+      <c r="N26">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P26">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q26">
+        <v>1.71173453285</v>
+      </c>
+      <c r="R26">
+        <v>15.40561079565</v>
+      </c>
+      <c r="S26">
+        <v>0.0006340139613713783</v>
+      </c>
+      <c r="T26">
+        <v>0.0006340139613713783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.253455</v>
+      </c>
+      <c r="I27">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J27">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>55.974318</v>
+      </c>
+      <c r="N27">
+        <v>167.922954</v>
+      </c>
+      <c r="O27">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P27">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q27">
+        <v>4.728990256229999</v>
+      </c>
+      <c r="R27">
+        <v>42.56091230607</v>
+      </c>
+      <c r="S27">
+        <v>0.001751583430782937</v>
+      </c>
+      <c r="T27">
+        <v>0.001751583430782937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.253455</v>
+      </c>
+      <c r="I28">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J28">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N28">
+        <v>0.215531</v>
+      </c>
+      <c r="O28">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P28">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q28">
+        <v>0.006069712178333331</v>
+      </c>
+      <c r="R28">
+        <v>0.05462740960499999</v>
+      </c>
+      <c r="S28">
+        <v>2.248177032545992E-06</v>
+      </c>
+      <c r="T28">
+        <v>2.248177032545993E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="H21">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="I21">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="J21">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>12.5770824985993</v>
-      </c>
-      <c r="N21">
-        <v>12.5770824985993</v>
-      </c>
-      <c r="O21">
-        <v>0.1553548582999431</v>
-      </c>
-      <c r="P21">
-        <v>0.1553548582999431</v>
-      </c>
-      <c r="Q21">
-        <v>118.8618466950087</v>
-      </c>
-      <c r="R21">
-        <v>118.8618466950087</v>
-      </c>
-      <c r="S21">
-        <v>0.0621678036631509</v>
-      </c>
-      <c r="T21">
-        <v>0.0621678036631509</v>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.253455</v>
+      </c>
+      <c r="I29">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J29">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P29">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q29">
+        <v>0.01572170100333333</v>
+      </c>
+      <c r="R29">
+        <v>0.14149530903</v>
+      </c>
+      <c r="S29">
+        <v>5.823203155236699E-06</v>
+      </c>
+      <c r="T29">
+        <v>5.8232031552367E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.253455</v>
+      </c>
+      <c r="I30">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J30">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.579881</v>
+      </c>
+      <c r="O30">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P30">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q30">
+        <v>0.01633041542833333</v>
+      </c>
+      <c r="R30">
+        <v>0.146973738855</v>
+      </c>
+      <c r="S30">
+        <v>6.048666529686231E-06</v>
+      </c>
+      <c r="T30">
+        <v>6.04866652968623E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.253455</v>
+      </c>
+      <c r="I31">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J31">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N31">
+        <v>52.754797</v>
+      </c>
+      <c r="O31">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P31">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q31">
+        <v>1.485663008181666</v>
+      </c>
+      <c r="R31">
+        <v>13.370967073635</v>
+      </c>
+      <c r="S31">
+        <v>0.000550278720796666</v>
+      </c>
+      <c r="T31">
+        <v>0.0005502787207966661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H32">
+        <v>41.740472</v>
+      </c>
+      <c r="I32">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J32">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>20.26081</v>
+      </c>
+      <c r="N32">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P32">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q32">
+        <v>281.8985908341067</v>
+      </c>
+      <c r="R32">
+        <v>2537.08731750696</v>
+      </c>
+      <c r="S32">
+        <v>0.104413177890478</v>
+      </c>
+      <c r="T32">
+        <v>0.104413177890478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H33">
+        <v>41.740472</v>
+      </c>
+      <c r="I33">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J33">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>55.974318</v>
+      </c>
+      <c r="N33">
+        <v>167.922954</v>
+      </c>
+      <c r="O33">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P33">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q33">
+        <v>778.798151066032</v>
+      </c>
+      <c r="R33">
+        <v>7009.183359594288</v>
+      </c>
+      <c r="S33">
+        <v>0.2884611435886416</v>
+      </c>
+      <c r="T33">
+        <v>0.2884611435886415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H34">
+        <v>41.740472</v>
+      </c>
+      <c r="I34">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J34">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N34">
+        <v>0.215531</v>
+      </c>
+      <c r="O34">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P34">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q34">
+        <v>0.9995961856257776</v>
+      </c>
+      <c r="R34">
+        <v>8.996365670631999</v>
+      </c>
+      <c r="S34">
+        <v>0.0003702431219665388</v>
+      </c>
+      <c r="T34">
+        <v>0.0003702431219665388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H35">
+        <v>41.740472</v>
+      </c>
+      <c r="I35">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J35">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P35">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q35">
+        <v>2.589142926839111</v>
+      </c>
+      <c r="R35">
+        <v>23.30228634155199</v>
+      </c>
+      <c r="S35">
+        <v>0.0009589996182812298</v>
+      </c>
+      <c r="T35">
+        <v>0.0009589996182812299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H36">
+        <v>41.740472</v>
+      </c>
+      <c r="I36">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J36">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.579881</v>
+      </c>
+      <c r="O36">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P36">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q36">
+        <v>2.689389627092444</v>
+      </c>
+      <c r="R36">
+        <v>24.204506643832</v>
+      </c>
+      <c r="S36">
+        <v>0.0009961302634381064</v>
+      </c>
+      <c r="T36">
+        <v>0.0009961302634381064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H37">
+        <v>41.740472</v>
+      </c>
+      <c r="I37">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J37">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N37">
+        <v>52.754797</v>
+      </c>
+      <c r="O37">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P37">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q37">
+        <v>244.6677918937982</v>
+      </c>
+      <c r="R37">
+        <v>2202.010127044184</v>
+      </c>
+      <c r="S37">
+        <v>0.09062316205089288</v>
+      </c>
+      <c r="T37">
+        <v>0.09062316205089289</v>
       </c>
     </row>
   </sheetData>
